--- a/biology/Zoologie/Agelasida/Agelasida.xlsx
+++ b/biology/Zoologie/Agelasida/Agelasida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agelasida est un ordre d'animaux de l'embranchement des éponges (les éponges sont des animaux sans organes ou appareils bien définis).
 </t>
@@ -511,14 +523,16 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (18 mai 2016)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (18 mai 2016) :
 famille des Agelasidae Verrill, 1907
 famille des Astroscleridae Lister, 1900
 famille des Hymerhabdiidae Morrow, Picton, Erpenbeck, Boury-Esnault, Maggs &amp; Allcock, 2012
 Le site Paleobiology Database cite un certain nombre de familles préhistoriques, dont :
-famille †Preperonidellidae Finks et al., 2004[2]</t>
+famille †Preperonidellidae Finks et al., 2004</t>
         </is>
       </c>
     </row>
@@ -546,11 +560,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Agelasida Hartman (d), 1980[3].
-Plusieurs sources attribuent cet ordre à Verrill en 1907[4].
-Agelasida a pour synonyme[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Agelasida Hartman (d), 1980.
+Plusieurs sources attribuent cet ordre à Verrill en 1907.
+Agelasida a pour synonyme :
 Ceratoporellida Hartman &amp; Goreau, 1972</t>
         </is>
       </c>
@@ -580,6 +596,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
